--- a/KYJ/honey_stick/data/frequency_excel/kurly_noun_frequency.xlsx
+++ b/KYJ/honey_stick/data/frequency_excel/kurly_noun_frequency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4416" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,60 +27,21 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>꿀</t>
-  </si>
-  <si>
-    <t>스틱</t>
-  </si>
-  <si>
-    <t>구매</t>
-  </si>
-  <si>
-    <t>씩</t>
-  </si>
-  <si>
     <t>요거트</t>
   </si>
   <si>
-    <t>때</t>
-  </si>
-  <si>
     <t>포장</t>
   </si>
   <si>
     <t>맛</t>
   </si>
   <si>
-    <t>거</t>
-  </si>
-  <si>
     <t>선물</t>
   </si>
   <si>
-    <t>용</t>
-  </si>
-  <si>
-    <t>ㅎ</t>
-  </si>
-  <si>
-    <t>형</t>
-  </si>
-  <si>
-    <t>포</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>양</t>
   </si>
   <si>
-    <t>것</t>
-  </si>
-  <si>
-    <t>수</t>
-  </si>
-  <si>
     <t>편리</t>
   </si>
   <si>
@@ -108,12 +69,6 @@
     <t>개별</t>
   </si>
   <si>
-    <t>개</t>
-  </si>
-  <si>
-    <t>거트</t>
-  </si>
-  <si>
     <t>필요</t>
   </si>
   <si>
@@ -126,48 +81,21 @@
     <t>꿀맛</t>
   </si>
   <si>
-    <t>들</t>
-  </si>
-  <si>
     <t>아이</t>
   </si>
   <si>
-    <t>소</t>
-  </si>
-  <si>
-    <t>번</t>
-  </si>
-  <si>
     <t>생각</t>
   </si>
   <si>
     <t>아카시아</t>
   </si>
   <si>
-    <t>이거</t>
-  </si>
-  <si>
-    <t>적</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>듯</t>
-  </si>
-  <si>
     <t>쇼핑백</t>
   </si>
   <si>
-    <t>저</t>
-  </si>
-  <si>
     <t>감귤</t>
   </si>
   <si>
-    <t>ㅎㅎ</t>
-  </si>
-  <si>
     <t>낱개</t>
   </si>
   <si>
@@ -183,9 +111,6 @@
     <t>제품</t>
   </si>
   <si>
-    <t>ㅋ</t>
-  </si>
-  <si>
     <t>물</t>
   </si>
   <si>
@@ -213,21 +138,12 @@
     <t>목</t>
   </si>
   <si>
-    <t>중</t>
-  </si>
-  <si>
     <t>낱개포장</t>
   </si>
   <si>
     <t>꿀물</t>
   </si>
   <si>
-    <t>굿</t>
-  </si>
-  <si>
-    <t>분</t>
-  </si>
-  <si>
     <t>위생</t>
   </si>
   <si>
@@ -267,9 +183,6 @@
     <t>꽃</t>
   </si>
   <si>
-    <t>요</t>
-  </si>
-  <si>
     <t>꿀차</t>
   </si>
   <si>
@@ -288,9 +201,6 @@
     <t>용량</t>
   </si>
   <si>
-    <t>편</t>
-  </si>
-  <si>
     <t>기대</t>
   </si>
   <si>
@@ -318,6 +228,9 @@
     <t>단맛</t>
   </si>
   <si>
+    <t>패키지</t>
+  </si>
+  <si>
     <t>최고</t>
   </si>
   <si>
@@ -360,12 +273,6 @@
     <t>샐러드</t>
   </si>
   <si>
-    <t>패키지</t>
-  </si>
-  <si>
-    <t>님</t>
-  </si>
-  <si>
     <t>상품</t>
   </si>
   <si>
@@ -375,9 +282,6 @@
     <t>간편</t>
   </si>
   <si>
-    <t>전</t>
-  </si>
-  <si>
     <t>피자</t>
   </si>
   <si>
@@ -399,9 +303,6 @@
     <t>몸</t>
   </si>
   <si>
-    <t>뭐</t>
-  </si>
-  <si>
     <t>과일</t>
   </si>
   <si>
@@ -414,9 +315,6 @@
     <t>ㅋㅋ</t>
   </si>
   <si>
-    <t>데</t>
-  </si>
-  <si>
     <t>가능</t>
   </si>
   <si>
@@ -462,9 +360,6 @@
     <t>안</t>
   </si>
   <si>
-    <t>요거</t>
-  </si>
-  <si>
     <t>커피</t>
   </si>
   <si>
@@ -495,9 +390,6 @@
     <t>지인</t>
   </si>
   <si>
-    <t>꺼</t>
-  </si>
-  <si>
     <t>제주벌꿀</t>
   </si>
   <si>
@@ -507,9 +399,6 @@
     <t>꿀향</t>
   </si>
   <si>
-    <t>제</t>
-  </si>
-  <si>
     <t>효과</t>
   </si>
   <si>
@@ -531,12 +420,6 @@
     <t>다음</t>
   </si>
   <si>
-    <t>성</t>
-  </si>
-  <si>
-    <t>대</t>
-  </si>
-  <si>
     <t>조아</t>
   </si>
   <si>
@@ -546,9 +429,6 @@
     <t>감사</t>
   </si>
   <si>
-    <t>릭요거트</t>
-  </si>
-  <si>
     <t>불편</t>
   </si>
   <si>
@@ -618,12 +498,6 @@
     <t>운동</t>
   </si>
   <si>
-    <t>그릭요거트</t>
-  </si>
-  <si>
-    <t>만</t>
-  </si>
-  <si>
     <t>찰떡</t>
   </si>
   <si>
@@ -654,9 +528,6 @@
     <t>활용</t>
   </si>
   <si>
-    <t>몇</t>
-  </si>
-  <si>
     <t>캠핑</t>
   </si>
   <si>
@@ -771,9 +642,6 @@
     <t>이상</t>
   </si>
   <si>
-    <t>나</t>
-  </si>
-  <si>
     <t>걱정</t>
   </si>
   <si>
@@ -783,9 +651,6 @@
     <t>강추</t>
   </si>
   <si>
-    <t>이</t>
-  </si>
-  <si>
     <t>토핑</t>
   </si>
   <si>
@@ -909,9 +774,6 @@
     <t>약</t>
   </si>
   <si>
-    <t>떼</t>
-  </si>
-  <si>
     <t>드레싱</t>
   </si>
   <si>
@@ -951,9 +813,6 @@
     <t>쥬스</t>
   </si>
   <si>
-    <t>점</t>
-  </si>
-  <si>
     <t>풍미</t>
   </si>
   <si>
@@ -1068,9 +927,6 @@
     <t>용기</t>
   </si>
   <si>
-    <t>날</t>
-  </si>
-  <si>
     <t>짜리</t>
   </si>
   <si>
@@ -1374,9 +1230,6 @@
     <t>평</t>
   </si>
   <si>
-    <t>패키징</t>
-  </si>
-  <si>
     <t>기존</t>
   </si>
   <si>
@@ -1425,9 +1278,6 @@
     <t>나무</t>
   </si>
   <si>
-    <t>요거트볼</t>
-  </si>
-  <si>
     <t>잡화</t>
   </si>
   <si>
@@ -1525,6 +1375,156 @@
   </si>
   <si>
     <t>야외</t>
+  </si>
+  <si>
+    <t>소분포장</t>
+  </si>
+  <si>
+    <t>문제</t>
+  </si>
+  <si>
+    <t>영양</t>
+  </si>
+  <si>
+    <t>영양제</t>
+  </si>
+  <si>
+    <t>원래</t>
+  </si>
+  <si>
+    <t>꽃향기</t>
+  </si>
+  <si>
+    <t>기력</t>
+  </si>
+  <si>
+    <t>잔기침</t>
+  </si>
+  <si>
+    <t>딸아이</t>
+  </si>
+  <si>
+    <t>올리</t>
+  </si>
+  <si>
+    <t>적당</t>
+  </si>
+  <si>
+    <t>쓴맛</t>
+  </si>
+  <si>
+    <t>인위</t>
+  </si>
+  <si>
+    <t>학교</t>
+  </si>
+  <si>
+    <t>식구</t>
+  </si>
+  <si>
+    <t>설선물</t>
+  </si>
+  <si>
+    <t>해장</t>
+  </si>
+  <si>
+    <t>짝꿍</t>
+  </si>
+  <si>
+    <t>예방</t>
+  </si>
+  <si>
+    <t>물건</t>
+  </si>
+  <si>
+    <t>고생</t>
+  </si>
+  <si>
+    <t>ㄴ</t>
+  </si>
+  <si>
+    <t>나중</t>
+  </si>
+  <si>
+    <t>신</t>
+  </si>
+  <si>
+    <t>쟁이</t>
+  </si>
+  <si>
+    <t>단</t>
+  </si>
+  <si>
+    <t>배</t>
+  </si>
+  <si>
+    <t>티</t>
+  </si>
+  <si>
+    <t>수업</t>
+  </si>
+  <si>
+    <t>ㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>목아</t>
+  </si>
+  <si>
+    <t>어머니</t>
+  </si>
+  <si>
+    <t>하</t>
+  </si>
+  <si>
+    <t>제조</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>열</t>
+  </si>
+  <si>
+    <t>도</t>
+  </si>
+  <si>
+    <t>첨가</t>
+  </si>
+  <si>
+    <t>단점</t>
+  </si>
+  <si>
+    <t>등산</t>
+  </si>
+  <si>
+    <t>그램</t>
+  </si>
+  <si>
+    <t>날씨</t>
+  </si>
+  <si>
+    <t>개봉</t>
+  </si>
+  <si>
+    <t>끝맛</t>
+  </si>
+  <si>
+    <t>예상</t>
+  </si>
+  <si>
+    <t>최근</t>
+  </si>
+  <si>
+    <t>취향</t>
+  </si>
+  <si>
+    <t>고객</t>
+  </si>
+  <si>
+    <t>놀라</t>
+  </si>
+  <si>
+    <t>한스틱</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,13 +1563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,19 +1595,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1912,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1930,11 +1928,11 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1893</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1945,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1401</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1956,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1390</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1967,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1158</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1978,7 +1976,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1150</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1989,18 +1987,18 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1082</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>931</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -2011,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>860</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -2022,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>830</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -2033,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>804</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -2044,7 +2042,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>711</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -2055,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>633</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -2066,7 +2064,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>619</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -2077,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>595</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -2088,18 +2086,18 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>575</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>481</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -2110,7 +2108,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>453</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -2121,7 +2119,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>438</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -2132,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>406</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -2143,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>405</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -2154,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>363</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -2165,7 +2163,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>359</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -2176,7 +2174,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>350</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -2187,7 +2185,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>344</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -2198,7 +2196,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>332</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -2209,7 +2207,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>324</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -2220,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>272</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -2231,7 +2229,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>260</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -2242,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>234</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -2253,18 +2251,18 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>224</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>221</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -2275,7 +2273,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>212</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -2286,7 +2284,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>205</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -2297,7 +2295,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>203</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -2308,7 +2306,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>180</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -2319,7 +2317,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>178</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -2330,7 +2328,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>169</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -2341,18 +2339,18 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>167</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>161</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -2363,7 +2361,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>159</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -2374,7 +2372,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>154</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -2385,7 +2383,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -2396,18 +2394,18 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>151</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -2418,7 +2416,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -2429,7 +2427,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -2440,7 +2438,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -2451,7 +2449,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -2462,7 +2460,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -2473,7 +2471,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -2484,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -2495,18 +2493,18 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -2517,7 +2515,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -2528,7 +2526,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -2539,7 +2537,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -2550,7 +2548,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -2561,7 +2559,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -2572,18 +2570,18 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -2594,7 +2592,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -2605,7 +2603,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -2616,7 +2614,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -2627,7 +2625,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -2638,18 +2636,18 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -2660,7 +2658,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -2671,7 +2669,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -2682,7 +2680,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -2693,7 +2691,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -2704,7 +2702,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -2715,7 +2713,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -2726,7 +2724,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -2737,7 +2735,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -2748,7 +2746,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -2759,18 +2757,18 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -2781,7 +2779,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -2792,7 +2790,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -2803,7 +2801,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -2814,18 +2812,18 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C83">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -2836,7 +2834,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -2847,7 +2845,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -2858,29 +2856,29 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C87">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C88">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -2891,18 +2889,18 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C90">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -2913,7 +2911,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -2924,7 +2922,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -2935,18 +2933,18 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C94">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -2957,7 +2955,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -2968,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -2979,7 +2977,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -2990,7 +2988,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -3001,7 +2999,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -3012,7 +3010,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -3023,7 +3021,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -3034,7 +3032,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -3045,7 +3043,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -3056,7 +3054,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -3067,7 +3065,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -3078,7 +3076,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
@@ -3089,7 +3087,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
@@ -3100,7 +3098,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
@@ -3111,7 +3109,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
@@ -3122,7 +3120,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
@@ -3133,7 +3131,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
@@ -3144,18 +3142,18 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C113">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
@@ -3166,7 +3164,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
@@ -3177,7 +3175,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
@@ -3188,7 +3186,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
@@ -3199,7 +3197,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
@@ -3210,7 +3208,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
@@ -3221,18 +3219,18 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C120">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
@@ -3243,7 +3241,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
@@ -3254,7 +3252,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
@@ -3265,7 +3263,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
@@ -3276,7 +3274,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
@@ -3287,7 +3285,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
@@ -3298,7 +3296,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
@@ -3309,18 +3307,18 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C128">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
@@ -3331,7 +3329,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
@@ -3342,7 +3340,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
@@ -3353,7 +3351,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
@@ -3364,7 +3362,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
@@ -3375,7 +3373,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
@@ -3386,7 +3384,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
@@ -3397,7 +3395,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
@@ -3408,7 +3406,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
@@ -3419,7 +3417,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
@@ -3430,7 +3428,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
@@ -3441,18 +3439,18 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C140">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
@@ -3463,7 +3461,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
@@ -3474,18 +3472,18 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C143">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
@@ -3496,7 +3494,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
@@ -3507,7 +3505,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
@@ -3518,7 +3516,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
@@ -3529,7 +3527,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
@@ -3540,7 +3538,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
@@ -3551,7 +3549,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
@@ -3562,7 +3560,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -3573,7 +3571,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
@@ -3584,7 +3582,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
@@ -3595,7 +3593,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
@@ -3606,7 +3604,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
@@ -3617,7 +3615,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -3628,7 +3626,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
@@ -3639,7 +3637,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
@@ -3650,7 +3648,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
@@ -3661,7 +3659,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
@@ -3672,18 +3670,18 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C161">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
@@ -3694,7 +3692,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
@@ -3705,7 +3703,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
@@ -3716,7 +3714,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
@@ -3727,7 +3725,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
@@ -3738,7 +3736,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
@@ -3749,7 +3747,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
@@ -3760,7 +3758,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
@@ -3771,7 +3769,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
@@ -3782,7 +3780,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
@@ -3793,7 +3791,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
@@ -3804,7 +3802,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
@@ -3815,7 +3813,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
@@ -3826,7 +3824,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
@@ -3837,7 +3835,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
@@ -3848,7 +3846,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
@@ -3859,7 +3857,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
@@ -3870,7 +3868,7 @@
         <v>178</v>
       </c>
       <c r="C178">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
@@ -3881,7 +3879,7 @@
         <v>179</v>
       </c>
       <c r="C179">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
@@ -3892,7 +3890,7 @@
         <v>180</v>
       </c>
       <c r="C180">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
@@ -3903,7 +3901,7 @@
         <v>181</v>
       </c>
       <c r="C181">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
@@ -3914,7 +3912,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
@@ -3925,7 +3923,7 @@
         <v>183</v>
       </c>
       <c r="C183">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
@@ -3936,7 +3934,7 @@
         <v>184</v>
       </c>
       <c r="C184">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
@@ -3947,7 +3945,7 @@
         <v>185</v>
       </c>
       <c r="C185">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
@@ -3958,7 +3956,7 @@
         <v>186</v>
       </c>
       <c r="C186">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
@@ -3969,7 +3967,7 @@
         <v>187</v>
       </c>
       <c r="C187">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
@@ -3980,7 +3978,7 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
@@ -3991,7 +3989,7 @@
         <v>189</v>
       </c>
       <c r="C189">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
@@ -4002,7 +4000,7 @@
         <v>190</v>
       </c>
       <c r="C190">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
@@ -4013,7 +4011,7 @@
         <v>191</v>
       </c>
       <c r="C191">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
@@ -4024,7 +4022,7 @@
         <v>192</v>
       </c>
       <c r="C192">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
@@ -4035,7 +4033,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -4046,7 +4044,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
@@ -4057,7 +4055,7 @@
         <v>195</v>
       </c>
       <c r="C195">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
@@ -4068,7 +4066,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
@@ -4079,7 +4077,7 @@
         <v>197</v>
       </c>
       <c r="C197">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
@@ -4090,7 +4088,7 @@
         <v>198</v>
       </c>
       <c r="C198">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
@@ -4101,7 +4099,7 @@
         <v>199</v>
       </c>
       <c r="C199">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
@@ -4112,7 +4110,7 @@
         <v>200</v>
       </c>
       <c r="C200">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
@@ -4123,7 +4121,7 @@
         <v>201</v>
       </c>
       <c r="C201">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
@@ -4134,7 +4132,7 @@
         <v>202</v>
       </c>
       <c r="C202">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
@@ -4145,7 +4143,7 @@
         <v>203</v>
       </c>
       <c r="C203">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
@@ -4156,7 +4154,7 @@
         <v>204</v>
       </c>
       <c r="C204">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
@@ -4167,7 +4165,7 @@
         <v>205</v>
       </c>
       <c r="C205">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
@@ -4178,7 +4176,7 @@
         <v>206</v>
       </c>
       <c r="C206">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -4189,7 +4187,7 @@
         <v>207</v>
       </c>
       <c r="C207">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -4200,7 +4198,7 @@
         <v>208</v>
       </c>
       <c r="C208">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
@@ -4211,7 +4209,7 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
@@ -4222,7 +4220,7 @@
         <v>210</v>
       </c>
       <c r="C210">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
@@ -4233,7 +4231,7 @@
         <v>211</v>
       </c>
       <c r="C211">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
@@ -4244,7 +4242,7 @@
         <v>212</v>
       </c>
       <c r="C212">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
@@ -4255,7 +4253,7 @@
         <v>213</v>
       </c>
       <c r="C213">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
@@ -4266,7 +4264,7 @@
         <v>214</v>
       </c>
       <c r="C214">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
@@ -4277,7 +4275,7 @@
         <v>215</v>
       </c>
       <c r="C215">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
@@ -4288,18 +4286,18 @@
         <v>216</v>
       </c>
       <c r="C216">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C217">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
@@ -4310,7 +4308,7 @@
         <v>218</v>
       </c>
       <c r="C218">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
@@ -4321,7 +4319,7 @@
         <v>219</v>
       </c>
       <c r="C219">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -4332,7 +4330,7 @@
         <v>220</v>
       </c>
       <c r="C220">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
@@ -4343,7 +4341,7 @@
         <v>221</v>
       </c>
       <c r="C221">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
@@ -4354,7 +4352,7 @@
         <v>222</v>
       </c>
       <c r="C222">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
@@ -4365,7 +4363,7 @@
         <v>223</v>
       </c>
       <c r="C223">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -4376,7 +4374,7 @@
         <v>224</v>
       </c>
       <c r="C224">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
@@ -4387,7 +4385,7 @@
         <v>225</v>
       </c>
       <c r="C225">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
@@ -4398,7 +4396,7 @@
         <v>226</v>
       </c>
       <c r="C226">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
@@ -4409,7 +4407,7 @@
         <v>227</v>
       </c>
       <c r="C227">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
@@ -4420,7 +4418,7 @@
         <v>228</v>
       </c>
       <c r="C228">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
@@ -4431,7 +4429,7 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
@@ -4442,29 +4440,29 @@
         <v>230</v>
       </c>
       <c r="C230">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C231">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C232">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
@@ -4475,7 +4473,7 @@
         <v>233</v>
       </c>
       <c r="C233">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
@@ -4486,7 +4484,7 @@
         <v>234</v>
       </c>
       <c r="C234">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
@@ -4497,7 +4495,7 @@
         <v>235</v>
       </c>
       <c r="C235">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
@@ -4508,7 +4506,7 @@
         <v>236</v>
       </c>
       <c r="C236">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
@@ -4519,7 +4517,7 @@
         <v>237</v>
       </c>
       <c r="C237">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
@@ -4530,7 +4528,7 @@
         <v>238</v>
       </c>
       <c r="C238">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
@@ -4541,7 +4539,7 @@
         <v>239</v>
       </c>
       <c r="C239">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
@@ -4552,7 +4550,7 @@
         <v>240</v>
       </c>
       <c r="C240">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
@@ -4563,7 +4561,7 @@
         <v>241</v>
       </c>
       <c r="C241">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
@@ -4574,7 +4572,7 @@
         <v>242</v>
       </c>
       <c r="C242">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
@@ -4585,7 +4583,7 @@
         <v>243</v>
       </c>
       <c r="C243">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
@@ -4596,7 +4594,7 @@
         <v>244</v>
       </c>
       <c r="C244">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
@@ -4607,7 +4605,7 @@
         <v>245</v>
       </c>
       <c r="C245">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
@@ -4618,7 +4616,7 @@
         <v>246</v>
       </c>
       <c r="C246">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
@@ -4629,7 +4627,7 @@
         <v>247</v>
       </c>
       <c r="C247">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
@@ -4640,7 +4638,7 @@
         <v>248</v>
       </c>
       <c r="C248">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
@@ -4651,7 +4649,7 @@
         <v>249</v>
       </c>
       <c r="C249">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
@@ -4662,7 +4660,7 @@
         <v>250</v>
       </c>
       <c r="C250">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
@@ -4673,18 +4671,18 @@
         <v>251</v>
       </c>
       <c r="C251">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C252">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
@@ -4695,7 +4693,7 @@
         <v>253</v>
       </c>
       <c r="C253">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
@@ -4706,7 +4704,7 @@
         <v>254</v>
       </c>
       <c r="C254">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
@@ -4717,7 +4715,7 @@
         <v>255</v>
       </c>
       <c r="C255">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
@@ -4728,29 +4726,29 @@
         <v>256</v>
       </c>
       <c r="C256">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C257">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C258">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
@@ -4761,7 +4759,7 @@
         <v>259</v>
       </c>
       <c r="C259">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
@@ -4772,7 +4770,7 @@
         <v>260</v>
       </c>
       <c r="C260">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
@@ -4783,7 +4781,7 @@
         <v>261</v>
       </c>
       <c r="C261">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
@@ -4794,18 +4792,18 @@
         <v>262</v>
       </c>
       <c r="C262">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C263">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
@@ -4816,7 +4814,7 @@
         <v>264</v>
       </c>
       <c r="C264">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
@@ -4827,7 +4825,7 @@
         <v>265</v>
       </c>
       <c r="C265">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
@@ -4838,7 +4836,7 @@
         <v>266</v>
       </c>
       <c r="C266">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
@@ -4849,7 +4847,7 @@
         <v>267</v>
       </c>
       <c r="C267">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
@@ -4860,7 +4858,7 @@
         <v>268</v>
       </c>
       <c r="C268">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
@@ -4871,7 +4869,7 @@
         <v>269</v>
       </c>
       <c r="C269">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
@@ -4882,7 +4880,7 @@
         <v>270</v>
       </c>
       <c r="C270">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
@@ -4893,7 +4891,7 @@
         <v>271</v>
       </c>
       <c r="C271">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
@@ -4904,18 +4902,18 @@
         <v>272</v>
       </c>
       <c r="C272">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C273">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
@@ -4926,7 +4924,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
@@ -4937,7 +4935,7 @@
         <v>275</v>
       </c>
       <c r="C275">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
@@ -4948,7 +4946,7 @@
         <v>276</v>
       </c>
       <c r="C276">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
@@ -4959,7 +4957,7 @@
         <v>277</v>
       </c>
       <c r="C277">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
@@ -4970,7 +4968,7 @@
         <v>278</v>
       </c>
       <c r="C278">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
@@ -4981,7 +4979,7 @@
         <v>279</v>
       </c>
       <c r="C279">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
@@ -4992,7 +4990,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
@@ -5003,7 +5001,7 @@
         <v>281</v>
       </c>
       <c r="C281">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
@@ -5014,18 +5012,18 @@
         <v>282</v>
       </c>
       <c r="C282">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C283">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
@@ -5036,7 +5034,7 @@
         <v>284</v>
       </c>
       <c r="C284">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
@@ -5047,7 +5045,7 @@
         <v>285</v>
       </c>
       <c r="C285">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
@@ -5058,7 +5056,7 @@
         <v>286</v>
       </c>
       <c r="C286">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
@@ -5069,7 +5067,7 @@
         <v>287</v>
       </c>
       <c r="C287">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
@@ -5080,7 +5078,7 @@
         <v>288</v>
       </c>
       <c r="C288">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
@@ -5091,7 +5089,7 @@
         <v>289</v>
       </c>
       <c r="C289">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
@@ -5102,7 +5100,7 @@
         <v>290</v>
       </c>
       <c r="C290">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
@@ -5113,7 +5111,7 @@
         <v>291</v>
       </c>
       <c r="C291">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
@@ -5124,7 +5122,7 @@
         <v>292</v>
       </c>
       <c r="C292">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
@@ -5135,7 +5133,7 @@
         <v>293</v>
       </c>
       <c r="C293">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
@@ -5146,7 +5144,7 @@
         <v>294</v>
       </c>
       <c r="C294">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
@@ -5157,18 +5155,18 @@
         <v>295</v>
       </c>
       <c r="C295">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C296">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
@@ -5179,7 +5177,7 @@
         <v>297</v>
       </c>
       <c r="C297">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
@@ -5190,18 +5188,18 @@
         <v>298</v>
       </c>
       <c r="C298">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C299">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
@@ -5212,7 +5210,7 @@
         <v>300</v>
       </c>
       <c r="C300">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
@@ -5223,7 +5221,7 @@
         <v>301</v>
       </c>
       <c r="C301">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.4">
@@ -5234,7 +5232,7 @@
         <v>302</v>
       </c>
       <c r="C302">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.4">
@@ -5245,7 +5243,7 @@
         <v>303</v>
       </c>
       <c r="C303">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.4">
@@ -5256,7 +5254,7 @@
         <v>304</v>
       </c>
       <c r="C304">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.4">
@@ -5267,7 +5265,7 @@
         <v>305</v>
       </c>
       <c r="C305">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.4">
@@ -5278,18 +5276,18 @@
         <v>306</v>
       </c>
       <c r="C306">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C307">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.4">
@@ -5300,7 +5298,7 @@
         <v>308</v>
       </c>
       <c r="C308">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.4">
@@ -5311,7 +5309,7 @@
         <v>309</v>
       </c>
       <c r="C309">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.4">
@@ -5322,7 +5320,7 @@
         <v>310</v>
       </c>
       <c r="C310">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.4">
@@ -5333,7 +5331,7 @@
         <v>311</v>
       </c>
       <c r="C311">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.4">
@@ -5344,7 +5342,7 @@
         <v>312</v>
       </c>
       <c r="C312">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.4">
@@ -5355,7 +5353,7 @@
         <v>313</v>
       </c>
       <c r="C313">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.4">
@@ -5366,18 +5364,18 @@
         <v>314</v>
       </c>
       <c r="C314">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C315">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.4">
@@ -5388,7 +5386,7 @@
         <v>316</v>
       </c>
       <c r="C316">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.4">
@@ -5399,18 +5397,18 @@
         <v>317</v>
       </c>
       <c r="C317">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C318">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.4">
@@ -5421,7 +5419,7 @@
         <v>319</v>
       </c>
       <c r="C319">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.4">
@@ -5432,7 +5430,7 @@
         <v>320</v>
       </c>
       <c r="C320">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.4">
@@ -5443,18 +5441,18 @@
         <v>321</v>
       </c>
       <c r="C321">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C322">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.4">
@@ -5465,7 +5463,7 @@
         <v>323</v>
       </c>
       <c r="C323">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.4">
@@ -5476,7 +5474,7 @@
         <v>324</v>
       </c>
       <c r="C324">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.4">
@@ -5487,7 +5485,7 @@
         <v>325</v>
       </c>
       <c r="C325">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.4">
@@ -5498,7 +5496,7 @@
         <v>326</v>
       </c>
       <c r="C326">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.4">
@@ -5509,7 +5507,7 @@
         <v>327</v>
       </c>
       <c r="C327">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.4">
@@ -5520,7 +5518,7 @@
         <v>328</v>
       </c>
       <c r="C328">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.4">
@@ -5531,18 +5529,18 @@
         <v>329</v>
       </c>
       <c r="C329">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C330">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.4">
@@ -5553,18 +5551,18 @@
         <v>331</v>
       </c>
       <c r="C331">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C332">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.4">
@@ -5575,7 +5573,7 @@
         <v>333</v>
       </c>
       <c r="C333">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.4">
@@ -5586,7 +5584,7 @@
         <v>334</v>
       </c>
       <c r="C334">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.4">
@@ -5597,7 +5595,7 @@
         <v>335</v>
       </c>
       <c r="C335">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.4">
@@ -5608,7 +5606,7 @@
         <v>336</v>
       </c>
       <c r="C336">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.4">
@@ -5619,7 +5617,7 @@
         <v>337</v>
       </c>
       <c r="C337">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.4">
@@ -5630,18 +5628,18 @@
         <v>338</v>
       </c>
       <c r="C338">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>339</v>
       </c>
       <c r="C339">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.4">
@@ -5652,7 +5650,7 @@
         <v>340</v>
       </c>
       <c r="C340">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.4">
@@ -5663,7 +5661,7 @@
         <v>341</v>
       </c>
       <c r="C341">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.4">
@@ -5674,7 +5672,7 @@
         <v>342</v>
       </c>
       <c r="C342">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.4">
@@ -5685,7 +5683,7 @@
         <v>343</v>
       </c>
       <c r="C343">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.4">
@@ -5696,7 +5694,7 @@
         <v>344</v>
       </c>
       <c r="C344">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.4">
@@ -5707,7 +5705,7 @@
         <v>345</v>
       </c>
       <c r="C345">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.4">
@@ -5718,7 +5716,7 @@
         <v>346</v>
       </c>
       <c r="C346">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.4">
@@ -5729,7 +5727,7 @@
         <v>347</v>
       </c>
       <c r="C347">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.4">
@@ -5740,7 +5738,7 @@
         <v>348</v>
       </c>
       <c r="C348">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.4">
@@ -5751,7 +5749,7 @@
         <v>349</v>
       </c>
       <c r="C349">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.4">
@@ -5762,7 +5760,7 @@
         <v>350</v>
       </c>
       <c r="C350">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.4">
@@ -5773,7 +5771,7 @@
         <v>351</v>
       </c>
       <c r="C351">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.4">
@@ -5784,7 +5782,7 @@
         <v>352</v>
       </c>
       <c r="C352">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.4">
@@ -5795,7 +5793,7 @@
         <v>353</v>
       </c>
       <c r="C353">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.4">
@@ -5806,7 +5804,7 @@
         <v>354</v>
       </c>
       <c r="C354">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.4">
@@ -5817,7 +5815,7 @@
         <v>355</v>
       </c>
       <c r="C355">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.4">
@@ -5828,7 +5826,7 @@
         <v>356</v>
       </c>
       <c r="C356">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.4">
@@ -5839,7 +5837,7 @@
         <v>357</v>
       </c>
       <c r="C357">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.4">
@@ -5850,7 +5848,7 @@
         <v>358</v>
       </c>
       <c r="C358">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.4">
@@ -5861,7 +5859,7 @@
         <v>359</v>
       </c>
       <c r="C359">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.4">
@@ -5872,7 +5870,7 @@
         <v>360</v>
       </c>
       <c r="C360">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.4">
@@ -5883,7 +5881,7 @@
         <v>361</v>
       </c>
       <c r="C361">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.4">
@@ -5894,7 +5892,7 @@
         <v>362</v>
       </c>
       <c r="C362">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.4">
@@ -5905,7 +5903,7 @@
         <v>363</v>
       </c>
       <c r="C363">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.4">
@@ -5916,7 +5914,7 @@
         <v>364</v>
       </c>
       <c r="C364">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.4">
@@ -5927,7 +5925,7 @@
         <v>365</v>
       </c>
       <c r="C365">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.4">
@@ -5938,7 +5936,7 @@
         <v>366</v>
       </c>
       <c r="C366">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.4">
@@ -5949,7 +5947,7 @@
         <v>367</v>
       </c>
       <c r="C367">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.4">
@@ -5960,7 +5958,7 @@
         <v>368</v>
       </c>
       <c r="C368">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.4">
@@ -5971,7 +5969,7 @@
         <v>369</v>
       </c>
       <c r="C369">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.4">
@@ -5982,7 +5980,7 @@
         <v>370</v>
       </c>
       <c r="C370">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.4">
@@ -5993,7 +5991,7 @@
         <v>371</v>
       </c>
       <c r="C371">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.4">
@@ -6004,7 +6002,7 @@
         <v>372</v>
       </c>
       <c r="C372">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.4">
@@ -6015,7 +6013,7 @@
         <v>373</v>
       </c>
       <c r="C373">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.4">
@@ -6026,7 +6024,7 @@
         <v>374</v>
       </c>
       <c r="C374">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.4">
@@ -6037,7 +6035,7 @@
         <v>375</v>
       </c>
       <c r="C375">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.4">
@@ -6048,7 +6046,7 @@
         <v>376</v>
       </c>
       <c r="C376">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.4">
@@ -6059,7 +6057,7 @@
         <v>377</v>
       </c>
       <c r="C377">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.4">
@@ -6070,7 +6068,7 @@
         <v>378</v>
       </c>
       <c r="C378">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.4">
@@ -6081,7 +6079,7 @@
         <v>379</v>
       </c>
       <c r="C379">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.4">
@@ -6092,7 +6090,7 @@
         <v>380</v>
       </c>
       <c r="C380">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.4">
@@ -6103,7 +6101,7 @@
         <v>381</v>
       </c>
       <c r="C381">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.4">
@@ -6114,7 +6112,7 @@
         <v>382</v>
       </c>
       <c r="C382">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.4">
@@ -6125,7 +6123,7 @@
         <v>383</v>
       </c>
       <c r="C383">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.4">
@@ -6136,7 +6134,7 @@
         <v>384</v>
       </c>
       <c r="C384">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.4">
@@ -6147,7 +6145,7 @@
         <v>385</v>
       </c>
       <c r="C385">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.4">
@@ -6158,18 +6156,18 @@
         <v>386</v>
       </c>
       <c r="C386">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="2" t="s">
         <v>387</v>
       </c>
       <c r="C387">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.4">
@@ -6180,7 +6178,7 @@
         <v>388</v>
       </c>
       <c r="C388">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.4">
@@ -6191,7 +6189,7 @@
         <v>389</v>
       </c>
       <c r="C389">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.4">
@@ -6202,7 +6200,7 @@
         <v>390</v>
       </c>
       <c r="C390">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.4">
@@ -6213,7 +6211,7 @@
         <v>391</v>
       </c>
       <c r="C391">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.4">
@@ -6224,7 +6222,7 @@
         <v>392</v>
       </c>
       <c r="C392">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.4">
@@ -6235,7 +6233,7 @@
         <v>393</v>
       </c>
       <c r="C393">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.4">
@@ -6246,18 +6244,18 @@
         <v>394</v>
       </c>
       <c r="C394">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="2" t="s">
         <v>395</v>
       </c>
       <c r="C395">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.4">
@@ -6268,7 +6266,7 @@
         <v>396</v>
       </c>
       <c r="C396">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.4">
@@ -6279,7 +6277,7 @@
         <v>397</v>
       </c>
       <c r="C397">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.4">
@@ -6290,18 +6288,18 @@
         <v>398</v>
       </c>
       <c r="C398">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="2" t="s">
         <v>399</v>
       </c>
       <c r="C399">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.4">
@@ -6312,7 +6310,7 @@
         <v>400</v>
       </c>
       <c r="C400">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.4">
@@ -6323,7 +6321,7 @@
         <v>401</v>
       </c>
       <c r="C401">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.4">
@@ -6334,7 +6332,7 @@
         <v>402</v>
       </c>
       <c r="C402">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.4">
@@ -6345,7 +6343,7 @@
         <v>403</v>
       </c>
       <c r="C403">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.4">
@@ -6356,7 +6354,7 @@
         <v>404</v>
       </c>
       <c r="C404">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.4">
@@ -6367,7 +6365,7 @@
         <v>405</v>
       </c>
       <c r="C405">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.4">
@@ -6378,7 +6376,7 @@
         <v>406</v>
       </c>
       <c r="C406">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.4">
@@ -6389,7 +6387,7 @@
         <v>407</v>
       </c>
       <c r="C407">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.4">
@@ -6400,7 +6398,7 @@
         <v>408</v>
       </c>
       <c r="C408">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.4">
@@ -6411,7 +6409,7 @@
         <v>409</v>
       </c>
       <c r="C409">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.4">
@@ -6422,7 +6420,7 @@
         <v>410</v>
       </c>
       <c r="C410">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.4">
@@ -6433,7 +6431,7 @@
         <v>411</v>
       </c>
       <c r="C411">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.4">
@@ -6444,7 +6442,7 @@
         <v>412</v>
       </c>
       <c r="C412">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.4">
@@ -6455,7 +6453,7 @@
         <v>413</v>
       </c>
       <c r="C413">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.4">
@@ -6466,7 +6464,7 @@
         <v>414</v>
       </c>
       <c r="C414">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.4">
@@ -6477,7 +6475,7 @@
         <v>415</v>
       </c>
       <c r="C415">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.4">
@@ -6488,7 +6486,7 @@
         <v>416</v>
       </c>
       <c r="C416">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.4">
@@ -6499,7 +6497,7 @@
         <v>417</v>
       </c>
       <c r="C417">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.4">
@@ -6510,7 +6508,7 @@
         <v>418</v>
       </c>
       <c r="C418">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.4">
@@ -6521,7 +6519,7 @@
         <v>419</v>
       </c>
       <c r="C419">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.4">
@@ -6532,7 +6530,7 @@
         <v>420</v>
       </c>
       <c r="C420">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.4">
@@ -6543,7 +6541,7 @@
         <v>421</v>
       </c>
       <c r="C421">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.4">
@@ -6554,7 +6552,7 @@
         <v>422</v>
       </c>
       <c r="C422">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.4">
@@ -6565,7 +6563,7 @@
         <v>423</v>
       </c>
       <c r="C423">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.4">
@@ -6576,18 +6574,18 @@
         <v>424</v>
       </c>
       <c r="C424">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="2" t="s">
         <v>425</v>
       </c>
       <c r="C425">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.4">
@@ -6598,18 +6596,18 @@
         <v>426</v>
       </c>
       <c r="C426">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C427">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.4">
@@ -6620,7 +6618,7 @@
         <v>428</v>
       </c>
       <c r="C428">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.4">
@@ -6631,7 +6629,7 @@
         <v>429</v>
       </c>
       <c r="C429">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.4">
@@ -6642,7 +6640,7 @@
         <v>430</v>
       </c>
       <c r="C430">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.4">
@@ -6653,7 +6651,7 @@
         <v>431</v>
       </c>
       <c r="C431">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.4">
@@ -6664,7 +6662,7 @@
         <v>432</v>
       </c>
       <c r="C432">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.4">
@@ -6675,7 +6673,7 @@
         <v>433</v>
       </c>
       <c r="C433">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.4">
@@ -6686,18 +6684,18 @@
         <v>434</v>
       </c>
       <c r="C434">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C435">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.4">
@@ -6708,7 +6706,7 @@
         <v>436</v>
       </c>
       <c r="C436">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.4">
@@ -6719,7 +6717,7 @@
         <v>437</v>
       </c>
       <c r="C437">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.4">
@@ -6730,7 +6728,7 @@
         <v>438</v>
       </c>
       <c r="C438">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.4">
@@ -6741,7 +6739,7 @@
         <v>439</v>
       </c>
       <c r="C439">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.4">
@@ -6752,7 +6750,7 @@
         <v>440</v>
       </c>
       <c r="C440">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.4">
@@ -6763,7 +6761,7 @@
         <v>441</v>
       </c>
       <c r="C441">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.4">
@@ -6774,7 +6772,7 @@
         <v>442</v>
       </c>
       <c r="C442">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.4">
@@ -6785,7 +6783,7 @@
         <v>443</v>
       </c>
       <c r="C443">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.4">
@@ -6796,7 +6794,7 @@
         <v>444</v>
       </c>
       <c r="C444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.4">
@@ -6807,7 +6805,7 @@
         <v>445</v>
       </c>
       <c r="C445">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.4">
@@ -6818,7 +6816,7 @@
         <v>446</v>
       </c>
       <c r="C446">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.4">
@@ -6829,7 +6827,7 @@
         <v>447</v>
       </c>
       <c r="C447">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.4">
@@ -6840,7 +6838,7 @@
         <v>448</v>
       </c>
       <c r="C448">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.4">
@@ -6851,7 +6849,7 @@
         <v>449</v>
       </c>
       <c r="C449">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.4">
@@ -6862,7 +6860,7 @@
         <v>450</v>
       </c>
       <c r="C450">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.4">
@@ -6873,7 +6871,7 @@
         <v>451</v>
       </c>
       <c r="C451">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.4">
@@ -6884,7 +6882,7 @@
         <v>452</v>
       </c>
       <c r="C452">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.4">
@@ -6895,7 +6893,7 @@
         <v>453</v>
       </c>
       <c r="C453">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.4">
@@ -6906,7 +6904,7 @@
         <v>454</v>
       </c>
       <c r="C454">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.4">
@@ -6917,7 +6915,7 @@
         <v>455</v>
       </c>
       <c r="C455">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.4">
@@ -6928,7 +6926,7 @@
         <v>456</v>
       </c>
       <c r="C456">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.4">
@@ -6939,7 +6937,7 @@
         <v>457</v>
       </c>
       <c r="C457">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.4">
@@ -6950,7 +6948,7 @@
         <v>458</v>
       </c>
       <c r="C458">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.4">
@@ -6961,7 +6959,7 @@
         <v>459</v>
       </c>
       <c r="C459">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.4">
@@ -6972,7 +6970,7 @@
         <v>460</v>
       </c>
       <c r="C460">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.4">
@@ -6983,7 +6981,7 @@
         <v>461</v>
       </c>
       <c r="C461">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.4">
@@ -6994,7 +6992,7 @@
         <v>462</v>
       </c>
       <c r="C462">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.4">
@@ -7005,7 +7003,7 @@
         <v>463</v>
       </c>
       <c r="C463">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.4">
@@ -7016,7 +7014,7 @@
         <v>464</v>
       </c>
       <c r="C464">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.4">
@@ -7027,7 +7025,7 @@
         <v>465</v>
       </c>
       <c r="C465">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.4">
@@ -7038,7 +7036,7 @@
         <v>466</v>
       </c>
       <c r="C466">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.4">
@@ -7049,7 +7047,7 @@
         <v>467</v>
       </c>
       <c r="C467">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.4">
@@ -7060,7 +7058,7 @@
         <v>468</v>
       </c>
       <c r="C468">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.4">
@@ -7071,7 +7069,7 @@
         <v>469</v>
       </c>
       <c r="C469">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.4">
@@ -7082,7 +7080,7 @@
         <v>470</v>
       </c>
       <c r="C470">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.4">
@@ -7093,7 +7091,7 @@
         <v>471</v>
       </c>
       <c r="C471">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.4">
@@ -7104,7 +7102,7 @@
         <v>472</v>
       </c>
       <c r="C472">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.4">
@@ -7115,7 +7113,7 @@
         <v>473</v>
       </c>
       <c r="C473">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.4">
@@ -7126,7 +7124,7 @@
         <v>474</v>
       </c>
       <c r="C474">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.4">
@@ -7137,7 +7135,7 @@
         <v>475</v>
       </c>
       <c r="C475">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.4">
@@ -7148,7 +7146,7 @@
         <v>476</v>
       </c>
       <c r="C476">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.4">
@@ -7159,7 +7157,7 @@
         <v>477</v>
       </c>
       <c r="C477">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.4">
@@ -7170,7 +7168,7 @@
         <v>478</v>
       </c>
       <c r="C478">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.4">
@@ -7181,7 +7179,7 @@
         <v>479</v>
       </c>
       <c r="C479">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.4">
@@ -7192,7 +7190,7 @@
         <v>480</v>
       </c>
       <c r="C480">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.4">
@@ -7203,7 +7201,7 @@
         <v>481</v>
       </c>
       <c r="C481">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.4">
@@ -7214,7 +7212,7 @@
         <v>482</v>
       </c>
       <c r="C482">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.4">
@@ -7225,7 +7223,7 @@
         <v>483</v>
       </c>
       <c r="C483">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.4">
@@ -7236,7 +7234,7 @@
         <v>484</v>
       </c>
       <c r="C484">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.4">
@@ -7247,7 +7245,7 @@
         <v>485</v>
       </c>
       <c r="C485">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.4">
@@ -7258,7 +7256,7 @@
         <v>486</v>
       </c>
       <c r="C486">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.4">
@@ -7269,7 +7267,7 @@
         <v>487</v>
       </c>
       <c r="C487">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.4">
@@ -7280,7 +7278,7 @@
         <v>488</v>
       </c>
       <c r="C488">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.4">
@@ -7291,7 +7289,7 @@
         <v>489</v>
       </c>
       <c r="C489">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.4">
@@ -7302,7 +7300,7 @@
         <v>490</v>
       </c>
       <c r="C490">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.4">
@@ -7313,7 +7311,7 @@
         <v>491</v>
       </c>
       <c r="C491">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.4">
@@ -7324,7 +7322,7 @@
         <v>492</v>
       </c>
       <c r="C492">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.4">
@@ -7335,7 +7333,7 @@
         <v>493</v>
       </c>
       <c r="C493">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.4">
@@ -7346,7 +7344,7 @@
         <v>494</v>
       </c>
       <c r="C494">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.4">
@@ -7357,7 +7355,7 @@
         <v>495</v>
       </c>
       <c r="C495">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.4">
@@ -7368,7 +7366,7 @@
         <v>496</v>
       </c>
       <c r="C496">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.4">
@@ -7379,7 +7377,7 @@
         <v>497</v>
       </c>
       <c r="C497">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.4">
@@ -7390,7 +7388,7 @@
         <v>498</v>
       </c>
       <c r="C498">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.4">
@@ -7401,7 +7399,7 @@
         <v>499</v>
       </c>
       <c r="C499">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.4">
@@ -7412,7 +7410,7 @@
         <v>500</v>
       </c>
       <c r="C500">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.4">
@@ -7423,12 +7421,11 @@
         <v>501</v>
       </c>
       <c r="C501">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>